--- a/sales/protected/commands/template/sale.xlsx
+++ b/sales/protected/commands/template/sale.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>销售拜访清单</t>
   </si>
   <si>
-    <t>注:   5/30000 表示签约或拜访5单 总金额30000</t>
+    <t>单数</t>
+  </si>
+  <si>
+    <t>金额</t>
   </si>
 </sst>
 </file>
@@ -27,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -62,11 +65,117 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,122 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,191 +217,251 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBB120F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBB120F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBB120F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBB120F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,38 +483,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,39 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,145 +525,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -653,10 +671,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -715,6 +733,13 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00DE0000"/>
+      <color rgb="00A60000"/>
+      <color rgb="00BB120F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -981,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -992,7 +1017,7 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="55" customHeight="1" spans="1:15">
+    <row r="1" ht="55" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,33 +1035,72 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="3"/>
+    <row r="19" spans="10:10">
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/sales/protected/commands/template/sale.xlsx
+++ b/sales/protected/commands/template/sale.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>销售拜访清单</t>
   </si>
   <si>
-    <t>单数</t>
+    <t>总单量</t>
   </si>
   <si>
-    <t>金额</t>
+    <t>签单量</t>
+  </si>
+  <si>
+    <t>签单金额</t>
   </si>
 </sst>
 </file>
@@ -30,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -65,6 +68,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -72,45 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -119,22 +147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,55 +161,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,186 +220,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -408,6 +411,41 @@
       <left style="thin">
         <color rgb="FFBB120F"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBB120F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBB120F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBB120F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBB120F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBB120F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBB120F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBB120F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBB120F"/>
       </right>
@@ -416,6 +454,80 @@
       </top>
       <bottom style="thin">
         <color rgb="FFBB120F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,51 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,35 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,159 +563,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1017,90 +1064,118 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="55" customHeight="1" spans="1:22">
+    <row r="1" ht="55" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:29">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="3"/>
+      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
